--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Generación de Energía Nueva Degan Sociedad Anónima</t>
+          <t>Generación de Energía Nueva Degan SpA</t>
         </is>
       </c>
       <c r="F125" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
+          <t>PMGD Eólico Oxypora</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Oxypora SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>640</v>
+        <v>11700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/09/2021</t>
+          <t>11/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152962452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157630509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RELLENO SANITARIO PARA RESIDUOS SÓLIDOS DOMICILIARIOS DE LA COMUNA DE ANCUD</t>
+          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1750</v>
+        <v>640</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/07/2021</t>
+          <t>10/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152518586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152962452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PMGD Eólico Urospora</t>
+          <t>RELLENO SANITARIO PARA RESIDUOS SÓLIDOS DOMICILIARIOS DE LA COMUNA DE ANCUD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Eólico Urospora SpA</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7700</v>
+        <v>1750</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/07/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151174986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152518586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
+          <t>PMGD Eólico Urospora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Parque Eólico Urospora SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>709</v>
+        <v>7700</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/01/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149721640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151174986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Construcción y Operación de Relleno Sanitario de RSD Puntra.</t>
+          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1750</v>
+        <v>709</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>19/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149056262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149721640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
+          <t>Construcción y Operación de Relleno Sanitario de RSD Puntra.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>107000</v>
+        <v>1750</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149056262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliacion Planta Procesadora de Algas Marinas</t>
+          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A.</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1500</v>
+        <v>107000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subestación Seccionadora Nueva Ancud 220 kV</t>
+          <t>Ampliacion Planta Procesadora de Algas Marinas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Algas Marinas S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143243309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instalación de 3 Aerogeneradores en Sector Colonia Belbén</t>
+          <t>Subestación Seccionadora Nueva Ancud 220 kV</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WIND 2 SPA</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143034320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143243309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instalación de 3 Aerogeneradores en Fundo Degan Chico</t>
+          <t>Instalación de 3 Aerogeneradores en Sector Colonia Belbén</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WIND 1 SPA</t>
+          <t>WIND 2 SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143031046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143034320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Cruce Chiloé"</t>
+          <t>Instalación de 3 Aerogeneradores en Fundo Degan Chico</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>WIND 1 SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19600</v>
+        <v>17000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/01/2017</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132093529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143031046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>"Cruce Chiloé"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>41000</v>
+        <v>19600</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>18/01/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132093529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Planta de Respaldo Eléctrico, Sector Degan, ampliando en 14MW su potencia</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nueva Degan SPA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>41000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/10/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130840422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos y Abalones, Bahía Linao, Comuna de Ancud, Región de los Lagos. Codigo Centro 102209, Pert Nº 211105001</t>
+          <t>Modificación Planta de Respaldo Eléctrico, Sector Degan, ampliando en 14MW su potencia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nueva Degan SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>16/10/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130585486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130840422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Bahía Linao, comuna de Ancud, Región de los Lagos. Código Centro 102209, Nº Pert 211105001</t>
+          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos y Abalones, Bahía Linao, Comuna de Ancud, Región de los Lagos. Codigo Centro 102209, Pert Nº 211105001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/06/2015</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130530318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130585486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental del Proyecto Técnico para el cultivo de ostreidos y de Mitílidos del Centro sector Nor Oeste de Punta Melanhue, estero Quetalmahue, Comuna Ancud, Xa Región, N° Pert 214105005</t>
+          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Bahía Linao, comuna de Ancud, Región de los Lagos. Código Centro 102209, Nº Pert 211105001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17/12/2014</t>
+          <t>24/06/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130034713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130530318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE ALGAS RÍO PUDETO, COMUNA DE ANCUD, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 207105035"</t>
+          <t>Declaración de Impacto Ambiental del Proyecto Técnico para el cultivo de ostreidos y de Mitílidos del Centro sector Nor Oeste de Punta Melanhue, estero Quetalmahue, Comuna Ancud, Xa Región, N° Pert 214105005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL RIO MAR LIMITADA</t>
+          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>17/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129992711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130034713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION</t>
+          <t>"CENTRO DE CULTIVO DE ALGAS RÍO PUDETO, COMUNA DE ANCUD, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 207105035"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Luis Alejandro Saldivia Barría</t>
+          <t>SOCIEDAD COMERCIAL RIO MAR LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/10/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129992711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGIÓN DE LOS LAGOS.</t>
+          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/10/2014</t>
+          <t>21/10/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGION</t>
+          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGIÓN DE LOS LAGOS.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/10/2014</t>
+          <t>20/10/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129851779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 207105029</t>
+          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/10/2014</t>
+          <t>13/10/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129853572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129851779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Planta de Respaldo de 36 MW a 50 MW</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 207105029</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Generación de Energía Nueva Degan Sociedad Anónima</t>
+          <t>Luis Alejandro Saldivia Barría</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
+        <v>134</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/10/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129853572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PARQUE EOLICO CHILOE</t>
+          <t>Modificación Proyecto Planta de Respaldo de 36 MW a 50 MW</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ECOPOWER S.A.C</t>
+          <t>Generación de Energía Nueva Degan Sociedad Anónima</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/11/2013</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128858699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
+          <t>PARQUE EOLICO CHILOE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Waldemar Ernesto Bórquez Mansilla</t>
+          <t>ECOPOWER S.A.C</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>740</v>
+        <v>250000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>29/11/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128836687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128858699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria chilensis EN RIO PUDETO SECTOR PUPELDE, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 208105006.</t>
+          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A.</t>
+          <t>Waldemar Ernesto Bórquez Mansilla</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>156</v>
+        <v>740</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128836687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Ostreídos y Pelillo, Sector Bahía Manao, al Suroeste de Punta Piedras, Comuna de Ancud - Solicitud Nº 209105011</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria chilensis EN RIO PUDETO SECTOR PUPELDE, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 208105006.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ACUICULTURA LA CRUZ SPA</t>
+          <t>Algas Marinas S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
+          <t>Cultivo de Mitílidos, Ostreídos y Pelillo, Sector Bahía Manao, al Suroeste de Punta Piedras, Comuna de Ancud - Solicitud Nº 209105011</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Waldemar Ernesto Bórquez Mansilla</t>
+          <t>ACUICULTURA LA CRUZ SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>740</v>
+        <v>89</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>16/08/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128423725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Construcción Hospital San Carlos de Ancud</t>
+          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Servicio de Salud Chiloé</t>
+          <t>Waldemar Ernesto Bórquez Mansilla</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>53236</v>
+        <v>740</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/07/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128423725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE ENSILAJE DE LA MORTALIDAD, CONCESIÓN NOROESTE DE PUNTA LILICURA, COMUNA ANCUD.</t>
+          <t>Construcción Hospital San Carlos de Ancud</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>Servicio de Salud Chiloé</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>53236</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>29/07/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE ENSILAJE DE LA MORTALIDAD, CONCESIÓN NOROESTE DE PUNTA LILICURA, COMUNA ANCUD.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,40 +1960,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PARQUE EOLICO CHILOE</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ECOPOWER S.A.C</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8178726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Parque Eólico Ancud</t>
+          <t>PARQUE EOLICO CHILOE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AustrianSolar Chile Siete SpA</t>
+          <t>ECOPOWER S.A.C</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/05/2013</t>
+          <t>20/05/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8176276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8178726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Modificación Parque Eólico Ancud</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AustrianSolar Chile Siete SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>250000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>17/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8176276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"PLAN GENERAL DE ADMINISTRACIÓN DE LA RESERVA MARINA PULLINQUE" REGIÓN DE LOS LAGOS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca y Acuicultura</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/11/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7522269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aumento Extracción Empréstito Alderete Comuna de Ancud Región de Los Lagos</t>
+          <t>"PLAN GENERAL DE ADMINISTRACIÓN DE LA RESERVA MARINA PULLINQUE" REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Roberto Alderete Muñoz</t>
+          <t>Servicio Nacional de Pesca y Acuicultura</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>13/11/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7178453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7522269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMÓNIDOS, CONCESIÓN NOROESTE DE PUNTA LILICURA, BAHÍA MANAO, COMUNA DE ANCUD, Nº SOLICITUD: 211105016.</t>
+          <t>Aumento Extracción Empréstito Alderete Comuna de Ancud Región de Los Lagos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>Roberto Alderete Muñoz</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4000</v>
+        <v>21</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/05/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6922756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7178453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMÓNIDOS, CONCESIÓN NOROESTE DE PUNTA LILICURA, BAHÍA MANAO, COMUNA DE ANCUD, Nº SOLICITUD: 211105016.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>22/05/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6922756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Huelden, Bahía Linao, Comuna de Ancud, Nº Solicitud: 211105014 Ampliación Biomasa, Huelden Ancud Sol. N°211105014</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Parque Eólico Pacífico</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Huelden, Bahía Linao, Comuna de Ancud, Nº Solicitud: 211105014 Ampliación Biomasa, Huelden Ancud Sol. N°211105014</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ECOINGENIEROS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>80000</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/03/2012</t>
+          <t>14/03/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Astillero Metcon</t>
+          <t>Parque Eólico Pacífico</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Metcom Ltda</t>
+          <t>ECOINGENIEROS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>80000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/03/2012</t>
+          <t>08/03/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6667069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CULTIVO DE PELILLO CAULIN BAJO 1 Nº SOLICITUD 206105009 Cultivo Pelillo Caulin 1</t>
+          <t>Astillero Metcon</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OSCAR MORALES TORRES</t>
+          <t>Metcom Ltda</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/03/2012</t>
+          <t>06/03/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6664655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6667069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CULTIVO DE PELILLO CAULIN BAJO 2, Nº SOLICITUD 206105010 Pelillo Caulin Bajo 2</t>
+          <t>CULTIVO DE PELILLO CAULIN BAJO 1 Nº SOLICITUD 206105009 Cultivo Pelillo Caulin 1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6666618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6664655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>CULTIVO DE PELILLO CAULIN BAJO 2, Nº SOLICITUD 206105010 Pelillo Caulin Bajo 2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>OSCAR MORALES TORRES</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>05/03/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6666618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Hueihue, Sector Bajo Cholche, Comuna de Ancud, Nº Solicitud: 211105017</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Manao, Al Suroeste de Punta Piedras, Comuna de Ancud, Nº Solicitud: 211105015.</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Hueihue, Sector Bajo Cholche, Comuna de Ancud, Nº Solicitud: 211105017</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6513865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Manao, Al Suroeste de Punta Piedras, Comuna de Ancud, Nº Solicitud: 211105015.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6513865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Noroeste de Punta Lilicura, Bahía Manao, Comuna de Ancud, Nº Solicitud: 211105016</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6428040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Parque Eólico Ancud</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Noroeste de Punta Lilicura, Bahía Manao, Comuna de Ancud, Nº Solicitud: 211105016</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AustrianSolar Chile Siete SpA</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250000</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6428040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Parque Eólico Ancud</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AustrianSolar Chile Siete SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>250000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>30/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Gracilaria, en Estero Quetalmahue, sector Chucalén, comuna de Ancud, N° de solicitud 206105016</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>eliecer ruiz myorga</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>25/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5966854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
+          <t>Centro de cultivo de Gracilaria, en Estero Quetalmahue, sector Chucalén, comuna de Ancud, N° de solicitud 206105016</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>eliecer ruiz myorga</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>55</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>25/08/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5966854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación planta de respaldo de 36 MW a 70 MW</t>
+          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Energy Partners Chile Generadora de Energía Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5514835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Bahía Linao, Pert Nº 208105001</t>
+          <t>Ampliación planta de respaldo de 36 MW a 70 MW</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Energy Partners Chile Generadora de Energía Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>13000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>08/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5421524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5514835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje. Centro de mar Hueihue</t>
+          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Bahía Linao, Pert Nº 208105001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>25/01/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5421524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Planta de desgasificados de camiones cisterna que transportan Combustibles y Otros</t>
+          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje. Centro de mar Hueihue</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Comercial Chiloé S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>25/01/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro Pulelo</t>
+          <t>Planta de desgasificados de camiones cisterna que transportan Combustibles y Otros</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Comercial Chiloé S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/11/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5065126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Huelden</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro Pulelo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>08/11/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5052203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5065126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO CHILOÉ</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Huelden</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ECOPOWER S.A.C</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>235000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5052203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Domiciliarios y Asimilables</t>
+          <t>PARQUE EÓLICO CHILOÉ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>ECOPOWER S.A.C</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3306</v>
+        <v>235000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHIA LINAO SOLICITUD Nº 208105005 AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHI</t>
+          <t>Estación de Transferencia de Residuos Sólidos Domiciliarios y Asimilables</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>3306</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>27/09/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4712647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHIA LINAO SOLICITUD Nº 208105005 AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHI</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4712647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bahía Manao</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Victor Orlando Sandoval Renin</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR NOROESTE PUNTA MELANHUE, ESTERO QUETALMAHUE COMUNA DE ANCUD (SOL Nº 207105010)"</t>
+          <t>Bahía Manao</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
+          <t>Victor Orlando Sandoval Renin</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/02/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4400773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos y Ostreideos Bahia Hueihue</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR NOROESTE PUNTA MELANHUE, ESTERO QUETALMAHUE COMUNA DE ANCUD (SOL Nº 207105010)"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oscar Armando Campos Mendez</t>
+          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>374</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4400773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Bahía Manao</t>
+          <t>Centro de Cultivo de Mitilidos y Ostreideos Bahia Hueihue</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victor Orlando Sandoval Renin</t>
+          <t>Oscar Armando Campos Mendez</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>16/02/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Bahía Manao</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Victor Orlando Sandoval Renin</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Cementerio Jardín Ancud (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES JARDIN SUR LTDA.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>56371</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Parque Cementerio Jardín Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>INMOBILIARIA E INVERSIONES JARDIN SUR LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>56371</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Incorporación de sistema de desinfección al sistema de tratamiento de RILes, Planta de Procesos de Cultivos Marinos Chiloé S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO DE CALETA DE PESCADORES ANCUD (e-seia)</t>
+          <t>Incorporación de sistema de desinfección al sistema de tratamiento de RILes, Planta de Procesos de Cultivos Marinos Chiloé S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>792</v>
+        <v>60</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4187121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO DE CALETA DE PESCADORES ANCUD (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>377</v>
+        <v>792</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>19/11/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4187121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Ancud (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>508</v>
+        <v>22</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>25/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>25/03/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Restauración y Puesta en Valor del Fuerte Chaicura y Batería Balcacura, (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ancud Ilustre Municipalidad</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Restauración y Puesta en Valor del Fuerte Chaicura y Batería Balcacura, (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Ancud Ilustre Municipalidad</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Chiloé (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/09/2008</t>
+          <t>15/09/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3144468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
+          <t>Construcción y Operación Subestación Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3144468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>11000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>04/09/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PRC DE ANCUD (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2912790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>ACTUALIZACION PRC DE ANCUD (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/06/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2912790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Modificación de la disposición de riles río Sin nombre. Comuna de Ancud. Provincia de Chiloé. Región de los lagos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rafael Alfredo Maripan Aguilera</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
+          <t>Modificación de la disposición de riles río Sin nombre. Comuna de Ancud. Provincia de Chiloé. Región de los lagos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Rafael Alfredo Maripan Aguilera</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao al Sur de Punta Lamedura, comuna de Ancud (SOL. Nº 204105015) (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Renate Iwersen Hansen</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2582757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao Sector Hueldén, comuna de Ancud (SOL. Nº 204105014) (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao al Sur de Punta Lamedura, comuna de Ancud (SOL. Nº 204105015) (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2587187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2582757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>"Construcción Terminales Portuarios Canal de Chacao" (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao Sector Hueldén, comuna de Ancud (SOL. Nº 204105014) (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Renate Iwersen Hansen</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40000</v>
+        <v>550</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2587187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Construcción Terminales Portuarios Canal de Chacao" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>429</v>
+        <v>40000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>07/11/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos en la concesión de Ensenada Pilluco, Golfo de Quetalmahue, Comuna de Ancud (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Hernán Rubén Troncoso Saavedra</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2418944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos en la concesión de Ensenada Pilluco, Golfo de Quetalmahue, Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Hernán Rubén Troncoso Saavedra</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2418944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Ancud Zonas de Extensión Urbana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN SISTEMA DE TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS LIQUIDOS DE PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS AL ESTUARIO DEL RIO PUDETO, ANCUD, DECIMA REGIÓN (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Ancud Zonas de Extensión Urbana (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Pacifico Austral Limitada</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/07/2007</t>
+          <t>02/08/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>REGULARIZACIÓN SISTEMA DE TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS LIQUIDOS DE PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS AL ESTUARIO DEL RIO PUDETO, ANCUD, DECIMA REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Sociedad Pesquera Pacifico Austral Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/07/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Implementacion Sistema de Tratamiento de Riles y Modificacion de produccion Psicicultura Tocoihue (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Aquagen Chile S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Bahía Linao (Nº PERT 204105009) (e-seia)</t>
+          <t>Implementacion Sistema de Tratamiento de Riles y Modificacion de produccion Psicicultura Tocoihue (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Aquagen Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Huelden Sector 1, Bahía de Linao, Comuna de Ancud (e-seia)</t>
+          <t>Cultivo de Mitílidos Bahía Linao (Nº PERT 204105009) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>12/03/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Huelden Sector 2, Bahía de Linao, Comuna de Ancud (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Huelden Sector 1, Bahía de Linao, Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Declaración de Impacto Ambiental Ampliación Centro de cultivo de salmónidos Bahía Linao (2P) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Huelden Sector 2, Bahía de Linao, Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>74</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificación Declaración de Impacto Ambiental Ampliación Centro de cultivo de salmónidos Bahía Linao (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PUNTA ARENAS, CULTIVO DE MOLUSCOS, ANCUD , CHILOE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EDUARDO PAVÉZ CIESIELSKI</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE SALMÓNIDOS BAHÍA LINAO, Nº206105082 (e-seia)</t>
+          <t>PUNTA ARENAS, CULTIVO DE MOLUSCOS, ANCUD , CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>EDUARDO PAVÉZ CIESIELSKI</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1500</v>
+        <v>95</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>08/01/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE SALMÓNIDOS BAHÍA LINAO, Nº206105082 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Respaldo 36 MW (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Generación de Energía Nueva Degan SpA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1770543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento y disposición final de riles del proceso de algas (e-seia)</t>
+          <t>Planta de Respaldo 36 MW (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A.</t>
+          <t>Generación de Energía Nueva Degan SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>115</v>
+        <v>11000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1770543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Sistema de tratamiento y disposición final de riles del proceso de algas (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Algas Marinas S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Chilolac S.A., X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Lácteos Chilolac S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema De Tratamiento De Residuos Industriales Líquidos De Lácteos Chiloé S.A., X Región (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Chilolac S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jorge Atisha Atisha</t>
+          <t>Lácteos Chilolac S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Instalación y Operación de Centro de Acopio Transitorio de Residuos Peligrosos e Industriales, Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Sistema De Tratamiento De Residuos Industriales Líquidos De Lácteos Chiloé S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Jorge Atisha Atisha</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2500</v>
+        <v>15</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>04/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1487042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Instalación y Operación de Centro de Acopio Transitorio de Residuos Peligrosos e Industriales, Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>2500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>04/07/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1487042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Acopio y Transferencia Manao (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Centro de Acopio y Transferencia Manao (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Del Proyecto Pesquera Cataluña S.A. Comuna de Ancud, X Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmuebles Cataluña Limitada.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Modificación Del Proyecto Pesquera Cataluña S.A. Comuna de Ancud, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Inmuebles Cataluña Limitada.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Parque Cementerio Ancud (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Parque La Paz Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Parque Cementerio Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,20 +7106,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Parque La Paz Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>02/02/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA DE PROCESO 0 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Cooperativa Pescadores de Ancud 96105056 (e-seia)</t>
+          <t>AMPLIACION PLANTA DE PROCESO 0 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Laura Sandoval Pérez</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>19/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=984753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Regularización de Planta de Tratamiento de RILes e Instalación de Emisario Submarino para la Disposición de RILes fuera de Zona de Protección Litoral, de la Empresa Sociedad Productos Pesqueros S.A., Ancud, X Región. SOPESCA (e-seia)</t>
+          <t>Centro de Cultivo Cooperativa Pescadores de Ancud 96105056 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Productos Pesqueros S.A.</t>
+          <t>Laura Sandoval Pérez</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>17/08/2005</t>
+          <t>19/08/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=984753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de Riles fuera de Zona de Protección Litoral, de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región 0 (e-seia)</t>
+          <t>Regularización de Planta de Tratamiento de RILes e Instalación de Emisario Submarino para la Disposición de RILes fuera de Zona de Protección Litoral, de la Empresa Sociedad Productos Pesqueros S.A., Ancud, X Región. SOPESCA (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Silgar Limitada</t>
+          <t>Sociedad Productos Pesqueros S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1586</v>
+        <v>13</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>17/06/2005</t>
+          <t>17/08/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=884304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE SMOLTIFICACION RIO PUDETO SECTOR PUPELDE, ANCUD X REGION. Nº PERT 202105002 (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de Riles fuera de Zona de Protección Litoral, de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Sociedad Pesquera Silgar Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>800</v>
+        <v>1586</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>17/06/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=884304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>"CONSERVACIÓN Y PUESTA EN VALOR DEL FUERTE SAN MIGUEL DE AGÜI, ANCUD" (e-seia)</t>
+          <t>CENTRO DE SMOLTIFICACION RIO PUDETO SECTOR PUPELDE, ANCUD X REGION. Nº PERT 202105002 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>07/03/2005</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=618913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Gracilaria, Río Pudeto, Ancud". Nº de Solicitud 201105001 (e-seia)</t>
+          <t>"CONSERVACIÓN Y PUESTA EN VALOR DEL FUERTE SAN MIGUEL DE AGÜI, ANCUD" (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SINDICATO DE TRABAJADORES INDEPENDIENTES CULTIVADORES Y EXPLOTADORES DE ALGAS PUPELDE LA UNION</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>25</v>
+        <v>1100</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28/02/2005</t>
+          <t>07/03/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=618913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de Riles de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región (e-seia)</t>
+          <t>"Centro de Cultivo de Gracilaria, Río Pudeto, Ancud". Nº de Solicitud 201105001 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Silgar Limitada</t>
+          <t>SINDICATO DE TRABAJADORES INDEPENDIENTES CULTIVADORES Y EXPLOTADORES DE ALGAS PUPELDE LA UNION</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>22/02/2005</t>
+          <t>28/02/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=566737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Moluscos, Bahía Hueihue (Nº de Sol. 201105003) (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de Riles de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ricardo Hernan Troncoso Traub</t>
+          <t>Sociedad Pesquera Silgar Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>22/12/2004</t>
+          <t>22/02/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=566737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Mitílidos, Manao 2004 (Nº de Solicitud 203105001) (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Moluscos, Bahía Hueihue (Nº de Sol. 201105003) (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Marco Antonio Ayala Redel</t>
+          <t>Ricardo Hernan Troncoso Traub</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>22/12/2004</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=511577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GUAPILINAO, CULTIVO DE MOLUSCOS EN ANCUD, CHILOÉ (Solicitud Nº202105005) (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Mitílidos, Manao 2004 (Nº de Solicitud 203105001) (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>LUIS FERNANDO GUINEO CÁRDENAS</t>
+          <t>Marco Antonio Ayala Redel</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=511577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>GUAPILINAO, CULTIVO DE MOLUSCOS EN ANCUD, CHILOÉ (Solicitud Nº202105005) (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>LUIS FERNANDO GUINEO CÁRDENAS</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Piscicultura Río Puntra (no. pert 202105006) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>"Taller de Lavado y Reparación de Redes Durán, Sector Chacao, Comuna de Ancud, X Región" (e-seia)</t>
+          <t>Piscicultura Río Puntra (no. pert 202105006) (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Durán y Compañía Limitada</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>14/06/2004</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=369680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Taller de Lavado y Reparación de Redes Durán, Sector Chacao, Comuna de Ancud, X Región" (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,30 +7922,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Durán y Compañía Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=369680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mejoramiento sendero Río Lar- Rio Refugio- Río Metalqui (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>484</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>17/12/2003</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Salmonideos Punta Ahui (solicitud Nº 201105008) (e-seia)</t>
+          <t>Mejoramiento sendero Río Lar- Rio Refugio- Río Metalqui (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Agroindustrial Santa Cruz S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2063</v>
+        <v>484</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>17/11/2003</t>
+          <t>17/12/2003</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=202267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Salmonideos Punta Ahui (solicitud Nº 201105008) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,30 +8066,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Agroindustrial Santa Cruz S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>2063</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>17/11/2003</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=202267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Quetalmahue 1, Cultivo de Ostras en Ancud (N° Sol. 96105014) (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,20 +8114,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Colorado Sur Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL DE ANCUD SECTOR LECHAGUA (e-seia)</t>
+          <t>Quetalmahue 1, Cultivo de Ostras en Ancud (N° Sol. 96105014) (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Colorado Sur Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=115442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Ancud, Seccional Villa Chacao (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL DE ANCUD SECTOR LECHAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=115442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Mar Brava I, Cultivo de Moluscos en Guapilacuy, (N° Sol. 200105008) (e-seia)</t>
+          <t>Modificación Plan Regulador de Ancud, Seccional Villa Chacao (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Pesquera Mar Brava S.A.</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mar Brava II, Cultivo de Moluscos en Caulín, Ancud, Chiloé (N° Sol. 200105013) (e-seia)</t>
+          <t>Mar Brava I, Cultivo de Moluscos en Guapilacuy, (N° Sol. 200105008) (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Caulín, Cultivo Acuícola en Ancud, Chiloé, (N° Sol. 200105010) (e-seia)</t>
+          <t>Mar Brava II, Cultivo de Moluscos en Caulín, Ancud, Chiloé (N° Sol. 200105013) (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>César Leopoldo Mansilla Ule</t>
+          <t>Pesquera Mar Brava S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pulelo Cultivo de Moluscos en Manao Chiloé (Nº Solicitud 99105004)</t>
+          <t>Caulín, Cultivo Acuícola en Ancud, Chiloé, (N° Sol. 200105010) (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Luis Vicente Swinburn Joannan</t>
+          <t>César Leopoldo Mansilla Ule</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>25/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>"Quempillén, Cultivo de Pelillo en Ancud, Chiloé", (Sol. N°96105041) (e-seia)</t>
+          <t>Pulelo Cultivo de Moluscos en Manao Chiloé (Nº Solicitud 99105004)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Pescadores Artesanales y Cultivadores Del Mar, "Quempillén"</t>
+          <t>Luis Vicente Swinburn Joannan</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>17/02/2003</t>
+          <t>25/02/2003</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Harina de Pescado ALTAMAR, Ancud, Región de los Lagos (e-seia)</t>
+          <t>"Quempillén, Cultivo de Pelillo en Ancud, Chiloé", (Sol. N°96105041) (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Pesquera Altamar Ltda.</t>
+          <t>Asociación Gremial de Pescadores Artesanales y Cultivadores Del Mar, "Quempillén"</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2575</v>
+        <v>7</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>04/02/2003</t>
+          <t>17/02/2003</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Linao (Solicitud N°201105018)</t>
+          <t>Planta Elaboradora de Harina de Pescado ALTAMAR, Ancud, Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ruben Segundo Sanchez Miranda</t>
+          <t>Pesquera Altamar Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>2575</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>12/04/2002</t>
+          <t>04/02/2003</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Río Pudeto (Solicitud N°201105009)</t>
+          <t>Cultivos Linao (Solicitud N°201105018)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Pescadores Artesanales de Ancud</t>
+          <t>Ruben Segundo Sanchez Miranda</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>26/03/2002</t>
+          <t>12/04/2002</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud ( Cuarta Presentación)</t>
+          <t>Cultivos Río Pudeto (Solicitud N°201105009)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Sindicato de Trabajadores Independientes Pescadores Artesanales de Ancud</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1450</v>
+        <v>20</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>22/03/2002</t>
+          <t>26/03/2002</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,12 +8680,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Puente Sobre el Canal del Chacao X Región Chile</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud ( Cuarta Presentación)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>308000</v>
+        <v>1450</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>22/03/2002</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,12 +8728,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicutlura ( Solicitui N°96105009)</t>
+          <t>Puente Sobre el Canal del Chacao X Región Chile</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Hector Florido Muñoz Figueroa</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10</v>
+        <v>308000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>21/02/2002</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cultivo de Algas en Manao N°97105009</t>
+          <t>Solicitud de Concesión de Acuicutlura ( Solicitui N°96105009)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>José Ruiz Raimilla</t>
+          <t>Hector Florido Muñoz Figueroa</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>21/02/2002</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos y Algas del Sindicato de Trabajadores Independientes Ñida N° Pert 201105023</t>
+          <t>Cultivo de Algas en Manao N°97105009</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Ñida</t>
+          <t>José Ruiz Raimilla</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Proyecto Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
+          <t>Cultivo de Moluscos y Algas del Sindicato de Trabajadores Independientes Ñida N° Pert 201105023</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Victor Manuel Ulloa Galindo</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Ñida</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>28/11/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Centro de Moluscos Guapilacui Ahuenco Ltda.N° Pert 96105055</t>
+          <t>Proyecto Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ahuenco Ltda.</t>
+          <t>Victor Manuel Ulloa Galindo</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>27/11/2001</t>
+          <t>28/11/2001</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cultivo de Ostras Quetalmahue Ancud N°97105023-97105020-97105018</t>
+          <t>Centro de Moluscos Guapilacui Ahuenco Ltda.N° Pert 96105055</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Colorado Sur Ltda.</t>
+          <t>Ahuenco Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>27/11/2001</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cultimar Cultivo de Pelillo en Ancud Chiloe (Solicitud 99105014)</t>
+          <t>Cultivo de Ostras Quetalmahue Ancud N°97105023-97105020-97105018</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>S.T.I. y Cultivadores de Algas Cultimar</t>
+          <t>Colorado Sur Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Arenas Cultivo de Moluscos Quetalmahue Ancud (Solicitud N°98105022)</t>
+          <t>Cultimar Cultivo de Pelillo en Ancud Chiloe (Solicitud 99105014)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Rosamel Alberto Rivera Velazquez</t>
+          <t>S.T.I. y Cultivadores de Algas Cultimar</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Riomar Cultivo de Gracilaria en el Rio Pudeto Ancud (Solicitud N°97105074 y 97105075)</t>
+          <t>Arenas Cultivo de Moluscos Quetalmahue Ancud (Solicitud N°98105022)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Riomar Ltda.</t>
+          <t>Rosamel Alberto Rivera Velazquez</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Mollusca II Cultivo de Mitílidos en Manao Chiloe (Solicitud 97105010 y 97105017)</t>
+          <t>Riomar Cultivo de Gracilaria en el Rio Pudeto Ancud (Solicitud N°97105074 y 97105075)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
+          <t>Sociedad Comercial Riomar Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Doca Cultivo Acuicola en Bahia Linao (Solicitud N°97105039)</t>
+          <t>Mollusca II Cultivo de Mitílidos en Manao Chiloe (Solicitud 97105010 y 97105017)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Richard Augusto Schneider Jimenéz</t>
+          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Cholche III N° Pert 96105049</t>
+          <t>Doca Cultivo Acuicola en Bahia Linao (Solicitud N°97105039)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Justo Lorenzo García Campos</t>
+          <t>Richard Augusto Schneider Jimenéz</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Fito-Hatchery para la Producción de Semilla de Algas Marinas Chilenas de Interes Comercial en Ancud-Chiloé Comuna de Ancud N°200105024</t>
+          <t>Proyecto Cholche III N° Pert 96105049</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A. Algamar</t>
+          <t>Justo Lorenzo García Campos</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cultivos Lecam</t>
+          <t>Fito-Hatchery para la Producción de Semilla de Algas Marinas Chilenas de Interes Comercial en Ancud-Chiloé Comuna de Ancud N°200105024</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Lecam</t>
+          <t>Algas Marinas S.A. Algamar</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>18/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Emisario Submarino y Cañería de Aducción de Agua Cultivos Marinos Chiloé Ltda.</t>
+          <t>Cultivos Lecam</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Lecam</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>17/10/2001</t>
+          <t>18/10/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Los Cisnes Cultivo de Moluscos en Manao Chiloé Pert N°98105024 98105025 98105026</t>
+          <t>Emisario Submarino y Cañería de Aducción de Agua Cultivos Marinos Chiloé Ltda.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,15 +9463,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Centro de Desarrollo Productivo Bahía Manao</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>17/10/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos Ostreídos y Gracilaria en la Bahía de Linao Comuna de Ancud N°98105003</t>
+          <t>Los Cisnes Cultivo de Moluscos en Manao Chiloé Pert N°98105024 98105025 98105026</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Fernando Aguila Millao</t>
+          <t>Centro de Desarrollo Productivo Bahía Manao</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Mollusca I Cultivo de Moluscos en Hueldén Chiloé Pert N°97105066</t>
+          <t>Cultivos de Mitílidos Ostreídos y Gracilaria en la Bahía de Linao Comuna de Ancud N°98105003</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
+          <t>Fernando Aguila Millao</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lecam Cultivo Acuícola en Bahía Linao Chiloé Pert N° 98105007</t>
+          <t>Mollusca I Cultivo de Moluscos en Hueldén Chiloé Pert N°97105066</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Soto Aguilar</t>
+          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>María Inés II Cultivo de Moluscos en Manao Chiloé Pert N°98105015</t>
+          <t>Lecam Cultivo Acuícola en Bahía Linao Chiloé Pert N° 98105007</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>María Inés Lagos Kretscmer</t>
+          <t>Daniel Alejandro Soto Aguilar</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>María Inés I Cultivo de Moluscos en Manao Chiloé Pert N°98105016</t>
+          <t>María Inés II Cultivo de Moluscos en Manao Chiloé Pert N°98105015</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura N° 97105059</t>
+          <t>María Inés I Cultivo de Moluscos en Manao Chiloé Pert N°98105016</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Angel Patricio gonzalez Gonzalez</t>
+          <t>María Inés Lagos Kretscmer</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión o Autorización de Acuicultura y Proyecto Técnico en el Sector de Estero Chaular Comuna de Ancud Provincia de Chiloé X Región de Los Lagos (Solicitud N° 96105025)</t>
+          <t>Solicitud de Concesión de Acuicultura N° 97105059</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Haydee del Carmen Gutierrez Olivares</t>
+          <t>Angel Patricio gonzalez Gonzalez</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas de Villa Chacao</t>
+          <t>Solicitud de Concesión o Autorización de Acuicultura y Proyecto Técnico en el Sector de Estero Chaular Comuna de Ancud Provincia de Chiloé X Región de Los Lagos (Solicitud N° 96105025)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Comité Pro Casa Propia Villa Chacao</t>
+          <t>Haydee del Carmen Gutierrez Olivares</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Bahía Linao Cultivadora de Salmones Linao Ltda. ( N°Sol. 97105038)</t>
+          <t>Alcantarillado de Aguas Servidas de Villa Chacao</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Comité Pro Casa Propia Villa Chacao</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>26/09/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Bahía Linao Cultivadora de Salmones Linao Ltda. ( N°Sol. 97105038)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,30 +9938,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>26/09/2001</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Camping Los Arrayanes</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,30 +9986,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Humberto Miguel Barria Galindo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>21/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria sp. En El Sector Puente Quilo Comuna de Ancud (Sol. N°95105022)</t>
+          <t>Camping Los Arrayanes</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,25 +10039,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Miguel Angel Ampuero Cárcamo</t>
+          <t>Humberto Miguel Barria Galindo</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>04/09/2001</t>
+          <t>21/09/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Sector Punta Corona (Sol. N°97105035)</t>
+          <t>Cultivo de Gracilaria sp. En El Sector Puente Quilo Comuna de Ancud (Sol. N°95105022)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Miguel Angel Ampuero Cárcamo</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>04/09/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pesquera Cataluña</t>
+          <t>Centro de Engorda de Salmones Sector Punta Corona (Sol. N°97105035)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Pesquera Cataluña S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Cholche II</t>
+          <t>Pesquera Cataluña</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Justo Lorenzo García Campos</t>
+          <t>Pesquera Cataluña S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>13/06/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud (Tercera Presentación)</t>
+          <t>Cultivos Cholche II</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,25 +10231,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Justo Lorenzo García Campos</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>920</v>
+        <v>40</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>13/06/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Chaicura Cultivo de Luche Porphyra sp. en Ancud</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Antartica Productos Marinos y Cía Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>920</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>30/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Yuste 2 Cultivo de Luche Porphyra sp. en Ancud</t>
+          <t>Chaicura Cultivo de Luche Porphyra sp. en Ancud</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Yuste 1 Cultivo de Luche Porphyra sp. en Ancud</t>
+          <t>Yuste 2 Cultivo de Luche Porphyra sp. en Ancud</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hatchery Para La Producción de Semilla de Luche en Ancud</t>
+          <t>Yuste 1 Cultivo de Luche Porphyra sp. en Ancud</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10427,11 +10427,11 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>30/03/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Construcción Planta de Recursos Marinos Silgar Ltda.</t>
+          <t>Hatchery Para La Producción de Semilla de Luche en Ancud</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Silgar Limitada</t>
+          <t>Antartica Productos Marinos y Cía Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>22/12/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
+          <t>Construcción Planta de Recursos Marinos Silgar Ltda.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,25 +10519,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Victor Manuel Ulloa Galindo</t>
+          <t>Sociedad Pesquera Silgar Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>11/10/2000</t>
+          <t>22/12/2000</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación de Especies El Futuro-Pudeto</t>
+          <t>Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Cultivadores y Explotadores de Algas El Futuro</t>
+          <t>Victor Manuel Ulloa Galindo</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10575,17 +10575,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>11/10/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Aqua Austral: Planta de Procesamiento y Congelado de Productos Marinos en Nal Península de Lacuy Ancud Chiloé</t>
+          <t>Ampliación de Especies El Futuro-Pudeto</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,15 +10615,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Comercial Isla Grande Ltda.</t>
+          <t>Sindicato de Trabajadores Independientes, Cultivadores y Explotadores de Algas El Futuro</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Aqua Austral: Planta de Procesamiento y Congelado de Productos Marinos en Nal Península de Lacuy Ancud Chiloé</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,20 +10658,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Comercial Isla Grande Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación de Especies para el Cultivo del Sindicato de Trabajadores Independientes (STI) Bahía Pulelo</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,20 +10706,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes (STI) Cultivadores y Explotadores de Algas Bahía Pulelo</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>22/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Proyecto Turistico Pinguin Land</t>
+          <t>Ampliación de Especies para el Cultivo del Sindicato de Trabajadores Independientes (STI) Bahía Pulelo</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,15 +10759,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera y Agroturistica Pinguin Land Ltda.</t>
+          <t>Sindicato de Trabajadores Independientes (STI) Cultivadores y Explotadores de Algas Bahía Pulelo</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>17/11/1999</t>
+          <t>22/12/1999</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Refugio Siglo XXI</t>
+          <t>Proyecto Turistico Pinguin Land</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,15 +10807,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ramón Olivares Gallego</t>
+          <t>Sociedad Hotelera y Agroturistica Pinguin Land Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>11/10/1999</t>
+          <t>17/11/1999</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Luche: Porphyra sp</t>
+          <t>Refugio Siglo XXI</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,15 +10855,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Antartic Marine Products Co.</t>
+          <t>Ramón Olivares Gallego</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2110</v>
+        <v>260</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08/03/1999</t>
+          <t>11/10/1999</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Alcantarillado de Ancud Mejoramiento y Disposición Final de las Aguas Servidas ( Segunda Presentación )</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Luche: Porphyra sp</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,25 +10903,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Antartic Marine Products Co.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>8700</v>
+        <v>2110</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>08/03/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Ancud sector Centro</t>
+          <t>Alcantarillado de Ancud Mejoramiento y Disposición Final de las Aguas Servidas ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,25 +10951,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>12/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas Villa Quetalmahue</t>
+          <t>Modificación al Plan Regulador Comunal de Ancud sector Centro</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,15 +10999,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Comite Villa Quetalmahue</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>23/11/1998</t>
+          <t>12/02/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Alcantarillado de Ancud Mejoramiento y Disposición final de Aguas Servidas.</t>
+          <t>Alcantarillado de Aguas Servidas Villa Quetalmahue</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,25 +11047,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comite Villa Quetalmahue</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>8820</v>
+        <v>60</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>23/11/1998</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,43 +11080,91 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>Alcantarillado de Ancud Mejoramiento y Disposición final de Aguas Servidas.</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>8820</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>30/03/1998</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=799&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>Escuela Rural Particular de Nal Comuna de Ancud</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
         <is>
           <t>Kareen Grete Wolf Hidalgo</t>
         </is>
       </c>
-      <c r="F224" t="n">
+      <c r="F225" t="n">
         <v>20</v>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>02/03/1998</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
+      <c r="I225" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>Ancud</t>
         </is>

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/11/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F97" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PMGD Eólico Oxypora</t>
+          <t>PMGD Coloane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Oxypora SpA</t>
+          <t>Coloane SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11700</v>
+        <v>16000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/11/2022</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157630509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
+          <t>PMGD Eólico Oxypora</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Oxypora SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>640</v>
+        <v>11700</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/09/2021</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152962452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157630509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RELLENO SANITARIO PARA RESIDUOS SÓLIDOS DOMICILIARIOS DE LA COMUNA DE ANCUD</t>
+          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1750</v>
+        <v>640</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/07/2021</t>
+          <t>10/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152518586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152962452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PMGD Eólico Urospora</t>
+          <t>RELLENO SANITARIO PARA RESIDUOS SÓLIDOS DOMICILIARIOS DE LA COMUNA DE ANCUD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Eólico Urospora SpA</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7700</v>
+        <v>1750</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151174986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152518586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
+          <t>PMGD Eólico Urospora</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Parque Eólico Urospora SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>709</v>
+        <v>7700</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/01/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149721640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151174986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Construcción y Operación de Relleno Sanitario de RSD Puntra.</t>
+          <t>Construcción Cementerio Municipal Sector Pupelde, Comuna de Ancud</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1750</v>
+        <v>709</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>19/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149056262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149721640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
+          <t>Construcción y Operación de Relleno Sanitario de RSD Puntra.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>107000</v>
+        <v>1750</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149056262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliacion Planta Procesadora de Algas Marinas</t>
+          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A.</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1500</v>
+        <v>107000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Subestación Seccionadora Nueva Ancud 220 kV</t>
+          <t>Ampliacion Planta Procesadora de Algas Marinas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Algas Marinas S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143243309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146636350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instalación de 3 Aerogeneradores en Sector Colonia Belbén</t>
+          <t>Subestación Seccionadora Nueva Ancud 220 kV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WIND 2 SPA</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143034320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143243309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instalación de 3 Aerogeneradores en Fundo Degan Chico</t>
+          <t>Instalación de 3 Aerogeneradores en Sector Colonia Belbén</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WIND 1 SPA</t>
+          <t>WIND 2 SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143031046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143034320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Cruce Chiloé"</t>
+          <t>Instalación de 3 Aerogeneradores en Fundo Degan Chico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>WIND 1 SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>19600</v>
+        <v>17000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/01/2017</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132093529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143031046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>"Cruce Chiloé"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>41000</v>
+        <v>19600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>18/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132093529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Planta de Respaldo Eléctrico, Sector Degan, ampliando en 14MW su potencia</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nueva Degan SPA</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3000</v>
+        <v>41000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/10/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130840422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos y Abalones, Bahía Linao, Comuna de Ancud, Región de los Lagos. Codigo Centro 102209, Pert Nº 211105001</t>
+          <t>Modificación Planta de Respaldo Eléctrico, Sector Degan, ampliando en 14MW su potencia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nueva Degan SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>16/10/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130585486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130840422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Bahía Linao, comuna de Ancud, Región de los Lagos. Código Centro 102209, Nº Pert 211105001</t>
+          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos y Abalones, Bahía Linao, Comuna de Ancud, Región de los Lagos. Codigo Centro 102209, Pert Nº 211105001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/06/2015</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130530318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130585486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental del Proyecto Técnico para el cultivo de ostreidos y de Mitílidos del Centro sector Nor Oeste de Punta Melanhue, estero Quetalmahue, Comuna Ancud, Xa Región, N° Pert 214105005</t>
+          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Bahía Linao, comuna de Ancud, Región de los Lagos. Código Centro 102209, Nº Pert 211105001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17/12/2014</t>
+          <t>24/06/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130034713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130530318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE ALGAS RÍO PUDETO, COMUNA DE ANCUD, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 207105035"</t>
+          <t>Declaración de Impacto Ambiental del Proyecto Técnico para el cultivo de ostreidos y de Mitílidos del Centro sector Nor Oeste de Punta Melanhue, estero Quetalmahue, Comuna Ancud, Xa Región, N° Pert 214105005</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL RIO MAR LIMITADA</t>
+          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>17/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129992711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130034713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION</t>
+          <t>"CENTRO DE CULTIVO DE ALGAS RÍO PUDETO, COMUNA DE ANCUD, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 207105035"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Luis Alejandro Saldivia Barría</t>
+          <t>SOCIEDAD COMERCIAL RIO MAR LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/10/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129992711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGIÓN DE LOS LAGOS.</t>
+          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/10/2014</t>
+          <t>21/10/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGION</t>
+          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGIÓN DE LOS LAGOS.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/10/2014</t>
+          <t>20/10/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129851779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129881066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 207105029</t>
+          <t>CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR CAIPULLI, COMUNA DE ANCUD, X REGION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/10/2014</t>
+          <t>13/10/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129853572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129851779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Planta de Respaldo de 36 MW a 50 MW</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria spp EN RIO PUDETO; SECTOR PUPELDE BAJO, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 207105029</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Generación de Energía Nueva Degan Sociedad Anónima</t>
+          <t>Luis Alejandro Saldivia Barría</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>134</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/10/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129853572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PARQUE EOLICO CHILOE</t>
+          <t>Modificación Proyecto Planta de Respaldo de 36 MW a 50 MW</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ECOPOWER S.A.C</t>
+          <t>Generación de Energía Nueva Degan Sociedad Anónima</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250000</v>
+        <v>3000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/11/2013</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128858699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
+          <t>PARQUE EOLICO CHILOE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Waldemar Ernesto Bórquez Mansilla</t>
+          <t>ECOPOWER S.A.C</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>740</v>
+        <v>250000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>29/11/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128836687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128858699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria chilensis EN RIO PUDETO SECTOR PUPELDE, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 208105006.</t>
+          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A.</t>
+          <t>Waldemar Ernesto Bórquez Mansilla</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>156</v>
+        <v>740</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128836687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Ostreídos y Pelillo, Sector Bahía Manao, al Suroeste de Punta Piedras, Comuna de Ancud - Solicitud Nº 209105011</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CULTIVO DE ALGA Gracilaria chilensis EN RIO PUDETO SECTOR PUPELDE, COMUNA DE ANCUD, X REGION Solicitud de Concesión de Acuicultura N° 208105006.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ACUICULTURA LA CRUZ SPA</t>
+          <t>Algas Marinas S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
+          <t>Cultivo de Mitílidos, Ostreídos y Pelillo, Sector Bahía Manao, al Suroeste de Punta Piedras, Comuna de Ancud - Solicitud Nº 209105011</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Waldemar Ernesto Bórquez Mansilla</t>
+          <t>ACUICULTURA LA CRUZ SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>740</v>
+        <v>89</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>16/08/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128423725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128472504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Construcción Hospital San Carlos de Ancud</t>
+          <t>EXTRACCIÓN DE TURBA SECTOR COGOMÓ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicio de Salud Chiloé</t>
+          <t>Waldemar Ernesto Bórquez Mansilla</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>53236</v>
+        <v>740</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29/07/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128423725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE ENSILAJE DE LA MORTALIDAD, CONCESIÓN NOROESTE DE PUNTA LILICURA, COMUNA ANCUD.</t>
+          <t>Construcción Hospital San Carlos de Ancud</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>Servicio de Salud Chiloé</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>53236</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>29/07/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL SISTEMA DE ENSILAJE DE LA MORTALIDAD, CONCESIÓN NOROESTE DE PUNTA LILICURA, COMUNA ANCUD.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,40 +2008,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PARQUE EOLICO CHILOE</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ECOPOWER S.A.C</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8178726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Parque Eólico Ancud</t>
+          <t>PARQUE EOLICO CHILOE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AustrianSolar Chile Siete SpA</t>
+          <t>ECOPOWER S.A.C</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/05/2013</t>
+          <t>20/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8176276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8178726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Modificación Parque Eólico Ancud</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AustrianSolar Chile Siete SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>250000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>17/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8176276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"PLAN GENERAL DE ADMINISTRACIÓN DE LA RESERVA MARINA PULLINQUE" REGIÓN DE LOS LAGOS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca y Acuicultura</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/11/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7522269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aumento Extracción Empréstito Alderete Comuna de Ancud Región de Los Lagos</t>
+          <t>"PLAN GENERAL DE ADMINISTRACIÓN DE LA RESERVA MARINA PULLINQUE" REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Roberto Alderete Muñoz</t>
+          <t>Servicio Nacional de Pesca y Acuicultura</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>13/11/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7178453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7522269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMÓNIDOS, CONCESIÓN NOROESTE DE PUNTA LILICURA, BAHÍA MANAO, COMUNA DE ANCUD, Nº SOLICITUD: 211105016.</t>
+          <t>Aumento Extracción Empréstito Alderete Comuna de Ancud Región de Los Lagos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>Roberto Alderete Muñoz</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>21</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/05/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6922756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7178453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMÓNIDOS, CONCESIÓN NOROESTE DE PUNTA LILICURA, BAHÍA MANAO, COMUNA DE ANCUD, Nº SOLICITUD: 211105016.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>22/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6922756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Huelden, Bahía Linao, Comuna de Ancud, Nº Solicitud: 211105014 Ampliación Biomasa, Huelden Ancud Sol. N°211105014</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Parque Eólico Pacífico</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Huelden, Bahía Linao, Comuna de Ancud, Nº Solicitud: 211105014 Ampliación Biomasa, Huelden Ancud Sol. N°211105014</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ECOINGENIEROS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>80000</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/03/2012</t>
+          <t>14/03/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Astillero Metcon</t>
+          <t>Parque Eólico Pacífico</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Metcom Ltda</t>
+          <t>ECOINGENIEROS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>400</v>
+        <v>80000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/03/2012</t>
+          <t>08/03/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6667069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6644860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CULTIVO DE PELILLO CAULIN BAJO 1 Nº SOLICITUD 206105009 Cultivo Pelillo Caulin 1</t>
+          <t>Astillero Metcon</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OSCAR MORALES TORRES</t>
+          <t>Metcom Ltda</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/03/2012</t>
+          <t>06/03/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6664655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6667069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CULTIVO DE PELILLO CAULIN BAJO 2, Nº SOLICITUD 206105010 Pelillo Caulin Bajo 2</t>
+          <t>CULTIVO DE PELILLO CAULIN BAJO 1 Nº SOLICITUD 206105009 Cultivo Pelillo Caulin 1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6666618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6664655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>CULTIVO DE PELILLO CAULIN BAJO 2, Nº SOLICITUD 206105010 Pelillo Caulin Bajo 2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>OSCAR MORALES TORRES</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>05/03/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6666618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Hueihue, Sector Bajo Cholche, Comuna de Ancud, Nº Solicitud: 211105017</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Manao, Al Suroeste de Punta Piedras, Comuna de Ancud, Nº Solicitud: 211105015.</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Hueihue, Sector Bajo Cholche, Comuna de Ancud, Nº Solicitud: 211105017</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6513865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Bahía Manao, Al Suroeste de Punta Piedras, Comuna de Ancud, Nº Solicitud: 211105015.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6513865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Noroeste de Punta Lilicura, Bahía Manao, Comuna de Ancud, Nº Solicitud: 211105016</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6428040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Parque Eólico Ancud</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Noroeste de Punta Lilicura, Bahía Manao, Comuna de Ancud, Nº Solicitud: 211105016</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AustrianSolar Chile Siete SpA</t>
+          <t>Cultivadora de Salmones Linao S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250000</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6428040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Parque Eólico Ancud</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AustrianSolar Chile Siete SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>250000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>30/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Gracilaria, en Estero Quetalmahue, sector Chucalén, comuna de Ancud, N° de solicitud 206105016</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>eliecer ruiz myorga</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5966854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
+          <t>Centro de cultivo de Gracilaria, en Estero Quetalmahue, sector Chucalén, comuna de Ancud, N° de solicitud 206105016</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>eliecer ruiz myorga</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>55</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>25/08/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5966854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación planta de respaldo de 36 MW a 70 MW</t>
+          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Energy Partners Chile Generadora de Energía Ltda.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5514835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Bahía Linao, Pert Nº 208105001</t>
+          <t>Ampliación planta de respaldo de 36 MW a 70 MW</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Energy Partners Chile Generadora de Energía Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>13000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>08/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5421524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5514835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje. Centro de mar Hueihue</t>
+          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Bahía Linao, Pert Nº 208105001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>25/01/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5421524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta de desgasificados de camiones cisterna que transportan Combustibles y Otros</t>
+          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje. Centro de mar Hueihue</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Comercial Chiloé S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>25/01/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro Pulelo</t>
+          <t>Planta de desgasificados de camiones cisterna que transportan Combustibles y Otros</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Comercial Chiloé S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/11/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5065126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Huelden</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro Pulelo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,11 +3611,11 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>08/11/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5052203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5065126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO CHILOÉ</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Huelden</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ECOPOWER S.A.C</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>235000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5052203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Domiciliarios y Asimilables</t>
+          <t>PARQUE EÓLICO CHILOÉ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>ECOPOWER S.A.C</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3306</v>
+        <v>235000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHIA LINAO SOLICITUD Nº 208105005 AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHI</t>
+          <t>Estación de Transferencia de Residuos Sólidos Domiciliarios y Asimilables</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>3306</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>27/09/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4712647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHIA LINAO SOLICITUD Nº 208105005 AMPLIACION DE CENTRO DE CULTIVO DE SALMONIDOS BAHI</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4712647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bahía Manao</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Victor Orlando Sandoval Renin</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR NOROESTE PUNTA MELANHUE, ESTERO QUETALMAHUE COMUNA DE ANCUD (SOL Nº 207105010)"</t>
+          <t>Bahía Manao</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
+          <t>Victor Orlando Sandoval Renin</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/02/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4400773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos y Ostreideos Bahia Hueihue</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS, EN SECTOR NOROESTE PUNTA MELANHUE, ESTERO QUETALMAHUE COMUNA DE ANCUD (SOL Nº 207105010)"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oscar Armando Campos Mendez</t>
+          <t>SOCIEDAD DE CULTIVO COLORADO SUR LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>374</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4400773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Bahía Manao</t>
+          <t>Centro de Cultivo de Mitilidos y Ostreideos Bahia Hueihue</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Victor Orlando Sandoval Renin</t>
+          <t>Oscar Armando Campos Mendez</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>16/02/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4378143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Bahía Manao</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Victor Orlando Sandoval Renin</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4382596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Parque Cementerio Jardín Ancud (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES JARDIN SUR LTDA.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>56371</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Parque Cementerio Jardín Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>INMOBILIARIA E INVERSIONES JARDIN SUR LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>56371</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4296113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Incorporación de sistema de desinfección al sistema de tratamiento de RILes, Planta de Procesos de Cultivos Marinos Chiloé S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO DE CALETA DE PESCADORES ANCUD (e-seia)</t>
+          <t>Incorporación de sistema de desinfección al sistema de tratamiento de RILes, Planta de Procesos de Cultivos Marinos Chiloé S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>792</v>
+        <v>60</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4187121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO DE CALETA DE PESCADORES ANCUD (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>377</v>
+        <v>792</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>19/11/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4187121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Ancud (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>508</v>
+        <v>22</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>25/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>25/03/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Restauración y Puesta en Valor del Fuerte Chaicura y Batería Balcacura, (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ancud Ilustre Municipalidad</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Restauración y Puesta en Valor del Fuerte Chaicura y Batería Balcacura, (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Ancud Ilustre Municipalidad</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Chiloé (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,11 +4955,11 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04/09/2008</t>
+          <t>15/09/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3144468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
+          <t>Construcción y Operación Subestación Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3144468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>11000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>04/09/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PRC DE ANCUD (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>03/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2912790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>ACTUALIZACION PRC DE ANCUD (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/06/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2912790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modificación de la disposición de riles río Sin nombre. Comuna de Ancud. Provincia de Chiloé. Región de los lagos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rafael Alfredo Maripan Aguilera</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
+          <t>Modificación de la disposición de riles río Sin nombre. Comuna de Ancud. Provincia de Chiloé. Región de los lagos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Rafael Alfredo Maripan Aguilera</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2828498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao al Sur de Punta Lamedura, comuna de Ancud (SOL. Nº 204105015) (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Renate Iwersen Hansen</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2582757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao Sector Hueldén, comuna de Ancud (SOL. Nº 204105014) (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao al Sur de Punta Lamedura, comuna de Ancud (SOL. Nº 204105015) (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2587187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2582757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>"Construcción Terminales Portuarios Canal de Chacao" (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Mitílidos en Bahía Linao Sector Hueldén, comuna de Ancud (SOL. Nº 204105014) (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Renate Iwersen Hansen</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>40000</v>
+        <v>550</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2587187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>"Construcción Terminales Portuarios Canal de Chacao" (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>429</v>
+        <v>40000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>07/11/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos en la concesión de Ensenada Pilluco, Golfo de Quetalmahue, Comuna de Ancud (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Hernán Rubén Troncoso Saavedra</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2418944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos en la concesión de Ensenada Pilluco, Golfo de Quetalmahue, Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Hernán Rubén Troncoso Saavedra</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2418944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Ancud Zonas de Extensión Urbana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN SISTEMA DE TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS LIQUIDOS DE PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS AL ESTUARIO DEL RIO PUDETO, ANCUD, DECIMA REGIÓN (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Ancud Zonas de Extensión Urbana (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Pacifico Austral Limitada</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/07/2007</t>
+          <t>02/08/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>REGULARIZACIÓN SISTEMA DE TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS LIQUIDOS DE PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS AL ESTUARIO DEL RIO PUDETO, ANCUD, DECIMA REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Sociedad Pesquera Pacifico Austral Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/07/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2287427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Implementacion Sistema de Tratamiento de Riles y Modificacion de produccion Psicicultura Tocoihue (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Aquagen Chile S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Bahía Linao (Nº PERT 204105009) (e-seia)</t>
+          <t>Implementacion Sistema de Tratamiento de Riles y Modificacion de produccion Psicicultura Tocoihue (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Aquagen Chile S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Huelden Sector 1, Bahía de Linao, Comuna de Ancud (e-seia)</t>
+          <t>Cultivo de Mitílidos Bahía Linao (Nº PERT 204105009) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>12/03/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Huelden Sector 2, Bahía de Linao, Comuna de Ancud (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Huelden Sector 1, Bahía de Linao, Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Declaración de Impacto Ambiental Ampliación Centro de cultivo de salmónidos Bahía Linao (2P) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Huelden Sector 2, Bahía de Linao, Comuna de Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1500</v>
+        <v>74</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2038818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificación Declaración de Impacto Ambiental Ampliación Centro de cultivo de salmónidos Bahía Linao (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PUNTA ARENAS, CULTIVO DE MOLUSCOS, ANCUD , CHILOE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EDUARDO PAVÉZ CIESIELSKI</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE SALMÓNIDOS BAHÍA LINAO, Nº206105082 (e-seia)</t>
+          <t>PUNTA ARENAS, CULTIVO DE MOLUSCOS, ANCUD , CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>EDUARDO PAVÉZ CIESIELSKI</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1500</v>
+        <v>95</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>08/01/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1919771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE SALMÓNIDOS BAHÍA LINAO, Nº206105082 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta de Respaldo 36 MW (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Generación de Energía Nueva Degan SpA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1770543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento y disposición final de riles del proceso de algas (e-seia)</t>
+          <t>Planta de Respaldo 36 MW (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A.</t>
+          <t>Generación de Energía Nueva Degan SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>115</v>
+        <v>11000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1770543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Sistema de tratamiento y disposición final de riles del proceso de algas (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Algas Marinas S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Chilolac S.A., X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Lácteos Chilolac S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>21/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sistema De Tratamiento De Residuos Industriales Líquidos De Lácteos Chiloé S.A., X Región (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Chilolac S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jorge Atisha Atisha</t>
+          <t>Lácteos Chilolac S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,17 +6591,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>21/07/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Instalación y Operación de Centro de Acopio Transitorio de Residuos Peligrosos e Industriales, Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Sistema De Tratamiento De Residuos Industriales Líquidos De Lácteos Chiloé S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Jorge Atisha Atisha</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2500</v>
+        <v>15</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>04/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1487042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1523571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Instalación y Operación de Centro de Acopio Transitorio de Residuos Peligrosos e Industriales, Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>2500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>04/07/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1487042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Acopio y Transferencia Manao (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Centro de Acopio y Transferencia Manao (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Del Proyecto Pesquera Cataluña S.A. Comuna de Ancud, X Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmuebles Cataluña Limitada.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Modificación Del Proyecto Pesquera Cataluña S.A. Comuna de Ancud, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Inmuebles Cataluña Limitada.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1341699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Parque Cementerio Ancud (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Parque La Paz Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Parque Cementerio Ancud (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Parque La Paz Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>02/02/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA DE PROCESO 0 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Cooperativa Pescadores de Ancud 96105056 (e-seia)</t>
+          <t>AMPLIACION PLANTA DE PROCESO 0 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Laura Sandoval Pérez</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>19/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=984753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=995706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Regularización de Planta de Tratamiento de RILes e Instalación de Emisario Submarino para la Disposición de RILes fuera de Zona de Protección Litoral, de la Empresa Sociedad Productos Pesqueros S.A., Ancud, X Región. SOPESCA (e-seia)</t>
+          <t>Centro de Cultivo Cooperativa Pescadores de Ancud 96105056 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Productos Pesqueros S.A.</t>
+          <t>Laura Sandoval Pérez</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>17/08/2005</t>
+          <t>19/08/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=984753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de Riles fuera de Zona de Protección Litoral, de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región 0 (e-seia)</t>
+          <t>Regularización de Planta de Tratamiento de RILes e Instalación de Emisario Submarino para la Disposición de RILes fuera de Zona de Protección Litoral, de la Empresa Sociedad Productos Pesqueros S.A., Ancud, X Región. SOPESCA (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Silgar Limitada</t>
+          <t>Sociedad Productos Pesqueros S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1586</v>
+        <v>13</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>17/06/2005</t>
+          <t>17/08/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=884304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE SMOLTIFICACION RIO PUDETO SECTOR PUPELDE, ANCUD X REGION. Nº PERT 202105002 (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de Riles fuera de Zona de Protección Litoral, de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Manuel Hermindo Norambuena Hidalgo</t>
+          <t>Sociedad Pesquera Silgar Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>800</v>
+        <v>1586</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>17/06/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=884304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>"CONSERVACIÓN Y PUESTA EN VALOR DEL FUERTE SAN MIGUEL DE AGÜI, ANCUD" (e-seia)</t>
+          <t>CENTRO DE SMOLTIFICACION RIO PUDETO SECTOR PUPELDE, ANCUD X REGION. Nº PERT 202105002 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Manuel Hermindo Norambuena Hidalgo</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>07/03/2005</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=618913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>"Centro de Cultivo de Gracilaria, Río Pudeto, Ancud". Nº de Solicitud 201105001 (e-seia)</t>
+          <t>"CONSERVACIÓN Y PUESTA EN VALOR DEL FUERTE SAN MIGUEL DE AGÜI, ANCUD" (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SINDICATO DE TRABAJADORES INDEPENDIENTES CULTIVADORES Y EXPLOTADORES DE ALGAS PUPELDE LA UNION</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>25</v>
+        <v>1100</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/02/2005</t>
+          <t>07/03/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=618913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de Riles de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región (e-seia)</t>
+          <t>"Centro de Cultivo de Gracilaria, Río Pudeto, Ancud". Nº de Solicitud 201105001 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Silgar Limitada</t>
+          <t>SINDICATO DE TRABAJADORES INDEPENDIENTES CULTIVADORES Y EXPLOTADORES DE ALGAS PUPELDE LA UNION</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>22/02/2005</t>
+          <t>28/02/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=566737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=617131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Moluscos, Bahía Hueihue (Nº de Sol. 201105003) (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de Riles de la Empresa Sociedad Pesquera Silgar Limitada, Ancud, Xª Región (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ricardo Hernan Troncoso Traub</t>
+          <t>Sociedad Pesquera Silgar Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>22/12/2004</t>
+          <t>22/02/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=566737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Centro de Cultivo y Engorda de Mitílidos, Manao 2004 (Nº de Solicitud 203105001) (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Moluscos, Bahía Hueihue (Nº de Sol. 201105003) (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Marco Antonio Ayala Redel</t>
+          <t>Ricardo Hernan Troncoso Traub</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>22/12/2004</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=511577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GUAPILINAO, CULTIVO DE MOLUSCOS EN ANCUD, CHILOÉ (Solicitud Nº202105005) (e-seia)</t>
+          <t>Centro de Cultivo y Engorda de Mitílidos, Manao 2004 (Nº de Solicitud 203105001) (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>LUIS FERNANDO GUINEO CÁRDENAS</t>
+          <t>Marco Antonio Ayala Redel</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=511577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>GUAPILINAO, CULTIVO DE MOLUSCOS EN ANCUD, CHILOÉ (Solicitud Nº202105005) (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>LUIS FERNANDO GUINEO CÁRDENAS</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=500490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Piscicultura Río Puntra (no. pert 202105006) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>"Taller de Lavado y Reparación de Redes Durán, Sector Chacao, Comuna de Ancud, X Región" (e-seia)</t>
+          <t>Piscicultura Río Puntra (no. pert 202105006) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Durán y Compañía Limitada</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>14/06/2004</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=369680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>"Taller de Lavado y Reparación de Redes Durán, Sector Chacao, Comuna de Ancud, X Región" (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Durán y Compañía Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=369680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Mejoramiento sendero Río Lar- Rio Refugio- Río Metalqui (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,30 +8018,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>484</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>17/12/2003</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Salmonideos Punta Ahui (solicitud Nº 201105008) (e-seia)</t>
+          <t>Mejoramiento sendero Río Lar- Rio Refugio- Río Metalqui (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Agroindustrial Santa Cruz S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2063</v>
+        <v>484</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/11/2003</t>
+          <t>17/12/2003</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=202267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Salmonideos Punta Ahui (solicitud Nº 201105008) (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,30 +8114,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Agroindustrial Santa Cruz S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>2063</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>17/11/2003</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=202267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Quetalmahue 1, Cultivo de Ostras en Ancud (N° Sol. 96105014) (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,20 +8162,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Colorado Sur Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL DE ANCUD SECTOR LECHAGUA (e-seia)</t>
+          <t>Quetalmahue 1, Cultivo de Ostras en Ancud (N° Sol. 96105014) (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Colorado Sur Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=115442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Ancud, Seccional Villa Chacao (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL DE ANCUD SECTOR LECHAGUA (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=115442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mar Brava I, Cultivo de Moluscos en Guapilacuy, (N° Sol. 200105008) (e-seia)</t>
+          <t>Modificación Plan Regulador de Ancud, Seccional Villa Chacao (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Pesquera Mar Brava S.A.</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Mar Brava II, Cultivo de Moluscos en Caulín, Ancud, Chiloé (N° Sol. 200105013) (e-seia)</t>
+          <t>Mar Brava I, Cultivo de Moluscos en Guapilacuy, (N° Sol. 200105008) (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Caulín, Cultivo Acuícola en Ancud, Chiloé, (N° Sol. 200105010) (e-seia)</t>
+          <t>Mar Brava II, Cultivo de Moluscos en Caulín, Ancud, Chiloé (N° Sol. 200105013) (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>César Leopoldo Mansilla Ule</t>
+          <t>Pesquera Mar Brava S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Pulelo Cultivo de Moluscos en Manao Chiloé (Nº Solicitud 99105004)</t>
+          <t>Caulín, Cultivo Acuícola en Ancud, Chiloé, (N° Sol. 200105010) (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Luis Vicente Swinburn Joannan</t>
+          <t>César Leopoldo Mansilla Ule</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>25/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>"Quempillén, Cultivo de Pelillo en Ancud, Chiloé", (Sol. N°96105041) (e-seia)</t>
+          <t>Pulelo Cultivo de Moluscos en Manao Chiloé (Nº Solicitud 99105004)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Pescadores Artesanales y Cultivadores Del Mar, "Quempillén"</t>
+          <t>Luis Vicente Swinburn Joannan</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>17/02/2003</t>
+          <t>25/02/2003</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Harina de Pescado ALTAMAR, Ancud, Región de los Lagos (e-seia)</t>
+          <t>"Quempillén, Cultivo de Pelillo en Ancud, Chiloé", (Sol. N°96105041) (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pesquera Altamar Ltda.</t>
+          <t>Asociación Gremial de Pescadores Artesanales y Cultivadores Del Mar, "Quempillén"</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2575</v>
+        <v>7</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>04/02/2003</t>
+          <t>17/02/2003</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Linao (Solicitud N°201105018)</t>
+          <t>Planta Elaboradora de Harina de Pescado ALTAMAR, Ancud, Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ruben Segundo Sanchez Miranda</t>
+          <t>Pesquera Altamar Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>2575</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12/04/2002</t>
+          <t>04/02/2003</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivos Río Pudeto (Solicitud N°201105009)</t>
+          <t>Cultivos Linao (Solicitud N°201105018)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Pescadores Artesanales de Ancud</t>
+          <t>Ruben Segundo Sanchez Miranda</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>26/03/2002</t>
+          <t>12/04/2002</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud ( Cuarta Presentación)</t>
+          <t>Cultivos Río Pudeto (Solicitud N°201105009)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Sindicato de Trabajadores Independientes Pescadores Artesanales de Ancud</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1450</v>
+        <v>20</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>22/03/2002</t>
+          <t>26/03/2002</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,12 +8728,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Puente Sobre el Canal del Chacao X Región Chile</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud ( Cuarta Presentación)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>308000</v>
+        <v>1450</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>22/03/2002</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicutlura ( Solicitui N°96105009)</t>
+          <t>Puente Sobre el Canal del Chacao X Región Chile</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Hector Florido Muñoz Figueroa</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>10</v>
+        <v>308000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>21/02/2002</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Cultivo de Algas en Manao N°97105009</t>
+          <t>Solicitud de Concesión de Acuicutlura ( Solicitui N°96105009)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>José Ruiz Raimilla</t>
+          <t>Hector Florido Muñoz Figueroa</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>21/02/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos y Algas del Sindicato de Trabajadores Independientes Ñida N° Pert 201105023</t>
+          <t>Cultivo de Algas en Manao N°97105009</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Ñida</t>
+          <t>José Ruiz Raimilla</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
+          <t>Cultivo de Moluscos y Algas del Sindicato de Trabajadores Independientes Ñida N° Pert 201105023</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Victor Manuel Ulloa Galindo</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Ñida</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>28/11/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Centro de Moluscos Guapilacui Ahuenco Ltda.N° Pert 96105055</t>
+          <t>Proyecto Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ahuenco Ltda.</t>
+          <t>Victor Manuel Ulloa Galindo</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>27/11/2001</t>
+          <t>28/11/2001</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cultivo de Ostras Quetalmahue Ancud N°97105023-97105020-97105018</t>
+          <t>Centro de Moluscos Guapilacui Ahuenco Ltda.N° Pert 96105055</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Colorado Sur Ltda.</t>
+          <t>Ahuenco Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>27/11/2001</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Cultimar Cultivo de Pelillo en Ancud Chiloe (Solicitud 99105014)</t>
+          <t>Cultivo de Ostras Quetalmahue Ancud N°97105023-97105020-97105018</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>S.T.I. y Cultivadores de Algas Cultimar</t>
+          <t>Colorado Sur Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Arenas Cultivo de Moluscos Quetalmahue Ancud (Solicitud N°98105022)</t>
+          <t>Cultimar Cultivo de Pelillo en Ancud Chiloe (Solicitud 99105014)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Rosamel Alberto Rivera Velazquez</t>
+          <t>S.T.I. y Cultivadores de Algas Cultimar</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Riomar Cultivo de Gracilaria en el Rio Pudeto Ancud (Solicitud N°97105074 y 97105075)</t>
+          <t>Arenas Cultivo de Moluscos Quetalmahue Ancud (Solicitud N°98105022)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Riomar Ltda.</t>
+          <t>Rosamel Alberto Rivera Velazquez</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Mollusca II Cultivo de Mitílidos en Manao Chiloe (Solicitud 97105010 y 97105017)</t>
+          <t>Riomar Cultivo de Gracilaria en el Rio Pudeto Ancud (Solicitud N°97105074 y 97105075)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
+          <t>Sociedad Comercial Riomar Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Doca Cultivo Acuicola en Bahia Linao (Solicitud N°97105039)</t>
+          <t>Mollusca II Cultivo de Mitílidos en Manao Chiloe (Solicitud 97105010 y 97105017)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Richard Augusto Schneider Jimenéz</t>
+          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Cholche III N° Pert 96105049</t>
+          <t>Doca Cultivo Acuicola en Bahia Linao (Solicitud N°97105039)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Justo Lorenzo García Campos</t>
+          <t>Richard Augusto Schneider Jimenéz</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Fito-Hatchery para la Producción de Semilla de Algas Marinas Chilenas de Interes Comercial en Ancud-Chiloé Comuna de Ancud N°200105024</t>
+          <t>Proyecto Cholche III N° Pert 96105049</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Algas Marinas S.A. Algamar</t>
+          <t>Justo Lorenzo García Campos</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cultivos Lecam</t>
+          <t>Fito-Hatchery para la Producción de Semilla de Algas Marinas Chilenas de Interes Comercial en Ancud-Chiloé Comuna de Ancud N°200105024</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Lecam</t>
+          <t>Algas Marinas S.A. Algamar</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>18/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Emisario Submarino y Cañería de Aducción de Agua Cultivos Marinos Chiloé Ltda.</t>
+          <t>Cultivos Lecam</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,15 +9463,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Sindicato de Trabajadores Independientes Cultivadores y Explotadores de Algas Lecam</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>17/10/2001</t>
+          <t>18/10/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Los Cisnes Cultivo de Moluscos en Manao Chiloé Pert N°98105024 98105025 98105026</t>
+          <t>Emisario Submarino y Cañería de Aducción de Agua Cultivos Marinos Chiloé Ltda.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Centro de Desarrollo Productivo Bahía Manao</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>17/10/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos Ostreídos y Gracilaria en la Bahía de Linao Comuna de Ancud N°98105003</t>
+          <t>Los Cisnes Cultivo de Moluscos en Manao Chiloé Pert N°98105024 98105025 98105026</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Fernando Aguila Millao</t>
+          <t>Centro de Desarrollo Productivo Bahía Manao</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Mollusca I Cultivo de Moluscos en Hueldén Chiloé Pert N°97105066</t>
+          <t>Cultivos de Mitílidos Ostreídos y Gracilaria en la Bahía de Linao Comuna de Ancud N°98105003</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
+          <t>Fernando Aguila Millao</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lecam Cultivo Acuícola en Bahía Linao Chiloé Pert N° 98105007</t>
+          <t>Mollusca I Cultivo de Moluscos en Hueldén Chiloé Pert N°97105066</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Soto Aguilar</t>
+          <t>Rodrigo Antonio Jesús Mandiola Moreno</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>María Inés II Cultivo de Moluscos en Manao Chiloé Pert N°98105015</t>
+          <t>Lecam Cultivo Acuícola en Bahía Linao Chiloé Pert N° 98105007</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>María Inés Lagos Kretscmer</t>
+          <t>Daniel Alejandro Soto Aguilar</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>María Inés I Cultivo de Moluscos en Manao Chiloé Pert N°98105016</t>
+          <t>María Inés II Cultivo de Moluscos en Manao Chiloé Pert N°98105015</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura N° 97105059</t>
+          <t>María Inés I Cultivo de Moluscos en Manao Chiloé Pert N°98105016</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Angel Patricio gonzalez Gonzalez</t>
+          <t>María Inés Lagos Kretscmer</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión o Autorización de Acuicultura y Proyecto Técnico en el Sector de Estero Chaular Comuna de Ancud Provincia de Chiloé X Región de Los Lagos (Solicitud N° 96105025)</t>
+          <t>Solicitud de Concesión de Acuicultura N° 97105059</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Haydee del Carmen Gutierrez Olivares</t>
+          <t>Angel Patricio gonzalez Gonzalez</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas de Villa Chacao</t>
+          <t>Solicitud de Concesión o Autorización de Acuicultura y Proyecto Técnico en el Sector de Estero Chaular Comuna de Ancud Provincia de Chiloé X Región de Los Lagos (Solicitud N° 96105025)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Comité Pro Casa Propia Villa Chacao</t>
+          <t>Haydee del Carmen Gutierrez Olivares</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Bahía Linao Cultivadora de Salmones Linao Ltda. ( N°Sol. 97105038)</t>
+          <t>Alcantarillado de Aguas Servidas de Villa Chacao</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Comité Pro Casa Propia Villa Chacao</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>26/09/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Bahía Linao Cultivadora de Salmones Linao Ltda. ( N°Sol. 97105038)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,30 +9986,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>26/09/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Camping Los Arrayanes</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,30 +10034,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Humberto Miguel Barria Galindo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>21/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria sp. En El Sector Puente Quilo Comuna de Ancud (Sol. N°95105022)</t>
+          <t>Camping Los Arrayanes</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,25 +10087,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Miguel Angel Ampuero Cárcamo</t>
+          <t>Humberto Miguel Barria Galindo</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>04/09/2001</t>
+          <t>21/09/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Sector Punta Corona (Sol. N°97105035)</t>
+          <t>Cultivo de Gracilaria sp. En El Sector Puente Quilo Comuna de Ancud (Sol. N°95105022)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Miguel Angel Ampuero Cárcamo</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>04/09/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pesquera Cataluña</t>
+          <t>Centro de Engorda de Salmones Sector Punta Corona (Sol. N°97105035)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Pesquera Cataluña S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Cholche II</t>
+          <t>Pesquera Cataluña</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Justo Lorenzo García Campos</t>
+          <t>Pesquera Cataluña S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>13/06/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud (Tercera Presentación)</t>
+          <t>Cultivos Cholche II</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Justo Lorenzo García Campos</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>920</v>
+        <v>40</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>09/04/2001</t>
+          <t>13/06/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chaicura Cultivo de Luche Porphyra sp. en Ancud</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Ancud (Tercera Presentación)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,25 +10327,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Antartica Productos Marinos y Cía Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>80</v>
+        <v>920</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>30/03/2001</t>
+          <t>09/04/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Yuste 2 Cultivo de Luche Porphyra sp. en Ancud</t>
+          <t>Chaicura Cultivo de Luche Porphyra sp. en Ancud</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10379,7 +10379,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Yuste 1 Cultivo de Luche Porphyra sp. en Ancud</t>
+          <t>Yuste 2 Cultivo de Luche Porphyra sp. en Ancud</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hatchery Para La Producción de Semilla de Luche en Ancud</t>
+          <t>Yuste 1 Cultivo de Luche Porphyra sp. en Ancud</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10475,11 +10475,11 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>13/02/2001</t>
+          <t>30/03/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Construcción Planta de Recursos Marinos Silgar Ltda.</t>
+          <t>Hatchery Para La Producción de Semilla de Luche en Ancud</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Silgar Limitada</t>
+          <t>Antartica Productos Marinos y Cía Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>22/12/2000</t>
+          <t>13/02/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
+          <t>Construcción Planta de Recursos Marinos Silgar Ltda.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,25 +10567,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Victor Manuel Ulloa Galindo</t>
+          <t>Sociedad Pesquera Silgar Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>11/10/2000</t>
+          <t>22/12/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación de Especies El Futuro-Pudeto</t>
+          <t>Fábrica de Procesamiento de Recursos Hidrobiológicos San Roque</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Cultivadores y Explotadores de Algas El Futuro</t>
+          <t>Victor Manuel Ulloa Galindo</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10623,17 +10623,17 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>03/10/2000</t>
+          <t>11/10/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Aqua Austral: Planta de Procesamiento y Congelado de Productos Marinos en Nal Península de Lacuy Ancud Chiloé</t>
+          <t>Ampliación de Especies El Futuro-Pudeto</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Comercial Isla Grande Ltda.</t>
+          <t>Sindicato de Trabajadores Independientes, Cultivadores y Explotadores de Algas El Futuro</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/10/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Aqua Austral: Planta de Procesamiento y Congelado de Productos Marinos en Nal Península de Lacuy Ancud Chiloé</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,20 +10706,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Comercial Isla Grande Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación de Especies para el Cultivo del Sindicato de Trabajadores Independientes (STI) Bahía Pulelo</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,20 +10754,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes (STI) Cultivadores y Explotadores de Algas Bahía Pulelo</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>22/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Proyecto Turistico Pinguin Land</t>
+          <t>Ampliación de Especies para el Cultivo del Sindicato de Trabajadores Independientes (STI) Bahía Pulelo</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,15 +10807,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad Hotelera y Agroturistica Pinguin Land Ltda.</t>
+          <t>Sindicato de Trabajadores Independientes (STI) Cultivadores y Explotadores de Algas Bahía Pulelo</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>17/11/1999</t>
+          <t>22/12/1999</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Refugio Siglo XXI</t>
+          <t>Proyecto Turistico Pinguin Land</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,15 +10855,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ramón Olivares Gallego</t>
+          <t>Sociedad Hotelera y Agroturistica Pinguin Land Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>11/10/1999</t>
+          <t>17/11/1999</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Luche: Porphyra sp</t>
+          <t>Refugio Siglo XXI</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,15 +10903,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Antartic Marine Products Co.</t>
+          <t>Ramón Olivares Gallego</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2110</v>
+        <v>260</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>08/03/1999</t>
+          <t>11/10/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Alcantarillado de Ancud Mejoramiento y Disposición Final de las Aguas Servidas ( Segunda Presentación )</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Luche: Porphyra sp</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,25 +10951,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Antartic Marine Products Co.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>8700</v>
+        <v>2110</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>08/03/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Ancud sector Centro</t>
+          <t>Alcantarillado de Ancud Mejoramiento y Disposición Final de las Aguas Servidas ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,25 +10999,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ancud</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>12/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas Villa Quetalmahue</t>
+          <t>Modificación al Plan Regulador Comunal de Ancud sector Centro</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Comite Villa Quetalmahue</t>
+          <t>Ilustre Municipalidad de Ancud</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>23/11/1998</t>
+          <t>12/02/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Alcantarillado de Ancud Mejoramiento y Disposición final de Aguas Servidas.</t>
+          <t>Alcantarillado de Aguas Servidas Villa Quetalmahue</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,25 +11095,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comite Villa Quetalmahue</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>8820</v>
+        <v>60</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>30/03/1998</t>
+          <t>23/11/1998</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,43 +11128,91 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>Alcantarillado de Ancud Mejoramiento y Disposición final de Aguas Servidas.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>8820</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>30/03/1998</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=799&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>Escuela Rural Particular de Nal Comuna de Ancud</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
         <is>
           <t>Kareen Grete Wolf Hidalgo</t>
         </is>
       </c>
-      <c r="F225" t="n">
+      <c r="F226" t="n">
         <v>20</v>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>02/03/1998</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
+      <c r="I226" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="J226" t="inlineStr">
         <is>
           <t>Ancud</t>
         </is>

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
+          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación del Sistema de Tratamiento de riles Proyecto Planta de Proceso de Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Regularizacion Planta de Alimentos para Peces Cultivos Marinos Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3188763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3164485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">

--- a/data/Ancud.xlsx
+++ b/data/Ancud.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
